--- a/9.0 CRONOGRAMA/CRONOGRAMA- PROGRESO.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- PROGRESO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0007-PROGRESO\9.0 CRONOGRAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI 751\Documents\GitHub\IOARR0009\9.0 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9564288D-EAA9-4356-B172-795878BD38F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FINANCIERO" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">FINANCIERO!$A$1:$F$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">FISICO!$A$1:$R$20</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -137,11 +136,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -599,31 +598,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,7 +631,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,29 +655,29 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -696,50 +695,50 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,7 +777,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -838,7 +837,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -898,7 +897,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -958,7 +957,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1018,7 +1017,7 @@
         <xdr:cNvPr id="6" name="Rectángulo 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1078,7 +1077,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1138,7 +1137,7 @@
         <xdr:cNvPr id="8" name="Rectángulo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1198,7 +1197,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1258,7 +1257,7 @@
         <xdr:cNvPr id="12" name="Rectángulo 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1318,7 +1317,7 @@
         <xdr:cNvPr id="13" name="Rectángulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1377,7 @@
         <xdr:cNvPr id="14" name="Rectángulo 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,14 +1684,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1743,12 +1742,12 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11">
         <f>F3</f>
-        <v>4174.2700000000004</v>
+        <v>5233.8599999999997</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>4174.2700000000004</v>
+        <v>5233.8599999999997</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1768,12 +1767,12 @@
       <c r="B5" s="10"/>
       <c r="C5" s="11">
         <f>F5</f>
-        <v>122248.96000000001</v>
+        <v>136690.66</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
-        <v>122248.96000000001</v>
+        <v>136690.66</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1783,15 +1782,15 @@
       <c r="B6" s="10"/>
       <c r="C6" s="11">
         <f>F6/2</f>
-        <v>54774.375</v>
+        <v>70079.12</v>
       </c>
       <c r="D6" s="11">
         <f>F6/2</f>
-        <v>54774.375</v>
+        <v>70079.12</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
-        <v>109548.75</v>
+        <v>140158.24</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1802,11 +1801,11 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11">
         <f>F7</f>
-        <v>5427.25</v>
+        <v>6573.93</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11">
-        <v>5427.25</v>
+        <v>6573.93</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1831,12 +1830,12 @@
       <c r="B9" s="10"/>
       <c r="C9" s="11">
         <f>F9</f>
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="13"/>
       <c r="F9" s="14">
-        <v>4000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1846,16 +1845,16 @@
       <c r="B10" s="29"/>
       <c r="C10" s="30">
         <f>SUM(C3:C9)</f>
-        <v>185197.60500000001</v>
+        <v>216503.63999999998</v>
       </c>
       <c r="D10" s="30">
         <f>SUM(D3:D9)</f>
-        <v>71413.125</v>
+        <v>87864.549999999988</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="15">
         <f>F3+F5+F6+F7+F8+F9</f>
-        <v>256610.73</v>
+        <v>304368.19</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1910,7 +1909,7 @@
       <c r="E13" s="31"/>
       <c r="F13" s="32">
         <f>F10+F11+F12</f>
-        <v>335092.57</v>
+        <v>382850.02999999997</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1971,11 +1970,11 @@
       </c>
       <c r="C17" s="33">
         <f>C10+C13+C14</f>
-        <v>236919.27500000002</v>
+        <v>268225.31</v>
       </c>
       <c r="D17" s="33">
         <f>D10+D13+D14</f>
-        <v>123134.795</v>
+        <v>139586.21999999997</v>
       </c>
       <c r="E17" s="33">
         <f>SUM(E10:E16)</f>
@@ -1993,7 +1992,7 @@
       <c r="E18" s="41"/>
       <c r="F18" s="34">
         <f>F13+F14+F15+F16+0.01</f>
-        <v>387344.83</v>
+        <v>435102.29</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2010,15 +2009,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2030,61 +2029,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45" t="s">
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
       <c r="R2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2156,30 +2155,30 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="11">
-        <v>4174.2700000000004</v>
+        <v>5233.8599999999997</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="58"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="56"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2202,7 +2201,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="11">
-        <v>122248.96000000001</v>
+        <v>136690.66</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2226,7 +2225,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="11">
-        <v>109548.75</v>
+        <v>140158.24</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2250,7 +2249,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="11">
-        <v>5427.25</v>
+        <v>6573.93</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2298,7 +2297,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="14">
-        <v>4000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2323,7 +2322,7 @@
       <c r="Q11" s="36"/>
       <c r="R11" s="32">
         <f>R4+R6+R7+R8+R9+R10</f>
-        <v>256610.73</v>
+        <v>304368.19</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2396,7 +2395,7 @@
       <c r="Q14" s="36"/>
       <c r="R14" s="32">
         <f>R11+R12+R13</f>
-        <v>335092.57</v>
+        <v>382850.02999999997</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2472,7 +2471,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="52" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="36"/>
@@ -2494,64 +2493,69 @@
       <c r="R18" s="37"/>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
-      <c r="B19" s="48">
+      <c r="A19" s="53"/>
+      <c r="B19" s="46">
         <f>FINANCIERO!B17</f>
         <v>10000</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51">
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49">
         <f>FINANCIERO!C17</f>
-        <v>236919.27500000002</v>
-      </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="51">
+        <v>268225.31</v>
+      </c>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="49">
         <f>FINANCIERO!D17</f>
-        <v>123134.795</v>
-      </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="51">
+        <v>139586.21999999997</v>
+      </c>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="49">
         <f>FINANCIERO!E17</f>
         <v>17290.75</v>
       </c>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="51"/>
       <c r="R19" s="37"/>
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
       <c r="R20" s="38">
         <f>R14+R15+R16+R17+0.01</f>
-        <v>387344.83</v>
+        <v>435102.29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B19:E19"/>
@@ -2560,11 +2564,6 @@
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/9.0 CRONOGRAMA/CRONOGRAMA- PROGRESO.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- PROGRESO.xlsx
@@ -130,7 +130,7 @@
     <t>Subtotal CD + GG + CP</t>
   </si>
   <si>
-    <t>Cronograma de inversión IOARR “OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA INSTITUCIÓN EDUCATIVA SECUNDARIA "FRAY DIEGO ORTIZ" PROGRESO,  DISTRITO PROGRESO, PROVINCIA GRAU, DEPARTAMENTO APURIMAC"</t>
+    <t>Cronograma de inversión IOARR “OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA INSTITUCIÓN EDUCATIVA SECUNDARIA "JUAN ESPINOZA MEDRANO" PATAYPAMPA,  DISTRITO PATAYPAMPA, PROVINCIA GRAU, DEPARTAMENTO APURIMAC"</t>
   </si>
 </sst>
 </file>
@@ -695,6 +695,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -733,12 +739,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,7 +777,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -837,7 +837,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -897,7 +897,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -957,7 +957,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1017,7 +1017,7 @@
         <xdr:cNvPr id="6" name="Rectángulo 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1077,7 +1077,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1137,7 +1137,7 @@
         <xdr:cNvPr id="8" name="Rectángulo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1197,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1257,7 +1257,7 @@
         <xdr:cNvPr id="12" name="Rectángulo 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1317,7 +1317,7 @@
         <xdr:cNvPr id="13" name="Rectángulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,7 +1377,7 @@
         <xdr:cNvPr id="14" name="Rectángulo 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,8 +1690,8 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2017,7 +2017,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2029,61 +2029,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
       <c r="R2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2159,26 +2159,26 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="58"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2471,7 +2471,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="54" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="36"/>
@@ -2493,57 +2493,57 @@
       <c r="R18" s="37"/>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="46">
+      <c r="A19" s="55"/>
+      <c r="B19" s="48">
         <f>FINANCIERO!B17</f>
         <v>10000</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49">
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51">
         <f>FINANCIERO!C17</f>
         <v>268225.31</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="49">
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="51">
         <f>FINANCIERO!D17</f>
         <v>139586.21999999997</v>
       </c>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="49">
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="51">
         <f>FINANCIERO!E17</f>
         <v>17290.75</v>
       </c>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="51"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="53"/>
       <c r="R19" s="37"/>
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
       <c r="R20" s="38">
         <f>R14+R15+R16+R17+0.01</f>
         <v>435102.29</v>
@@ -2551,11 +2551,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B19:E19"/>
@@ -2564,6 +2559,11 @@
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/9.0 CRONOGRAMA/CRONOGRAMA- PROGRESO.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- PROGRESO.xlsx
@@ -695,50 +695,50 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,7 +777,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -837,7 +837,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -897,7 +897,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -957,7 +957,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1017,7 +1017,7 @@
         <xdr:cNvPr id="6" name="Rectángulo 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1077,7 +1077,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1137,7 +1137,7 @@
         <xdr:cNvPr id="8" name="Rectángulo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1197,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1257,7 +1257,7 @@
         <xdr:cNvPr id="12" name="Rectángulo 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1317,7 +1317,7 @@
         <xdr:cNvPr id="13" name="Rectángulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,7 +1377,7 @@
         <xdr:cNvPr id="14" name="Rectángulo 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,15 +1782,15 @@
       <c r="B6" s="10"/>
       <c r="C6" s="11">
         <f>F6/2</f>
-        <v>70079.12</v>
+        <v>73197.62</v>
       </c>
       <c r="D6" s="11">
         <f>F6/2</f>
-        <v>70079.12</v>
+        <v>73197.62</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
-        <v>140158.24</v>
+        <v>146395.24</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1845,16 +1845,16 @@
       <c r="B10" s="29"/>
       <c r="C10" s="30">
         <f>SUM(C3:C9)</f>
-        <v>216503.63999999998</v>
+        <v>219622.13999999998</v>
       </c>
       <c r="D10" s="30">
         <f>SUM(D3:D9)</f>
-        <v>87864.549999999988</v>
+        <v>90983.049999999988</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="15">
         <f>F3+F5+F6+F7+F8+F9</f>
-        <v>304368.19</v>
+        <v>310605.19</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1909,7 +1909,7 @@
       <c r="E13" s="31"/>
       <c r="F13" s="32">
         <f>F10+F11+F12</f>
-        <v>382850.02999999997</v>
+        <v>389087.02999999997</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1970,11 +1970,11 @@
       </c>
       <c r="C17" s="33">
         <f>C10+C13+C14</f>
-        <v>268225.31</v>
+        <v>271343.81</v>
       </c>
       <c r="D17" s="33">
         <f>D10+D13+D14</f>
-        <v>139586.21999999997</v>
+        <v>142704.71999999997</v>
       </c>
       <c r="E17" s="33">
         <f>SUM(E10:E16)</f>
@@ -1992,7 +1992,7 @@
       <c r="E18" s="41"/>
       <c r="F18" s="34">
         <f>F13+F14+F15+F16+0.01</f>
-        <v>435102.29</v>
+        <v>441339.29</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2017,7 +2017,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2029,61 +2029,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45" t="s">
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
       <c r="R2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2159,26 +2159,26 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="58"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="56"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2225,7 +2225,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="11">
-        <v>140158.24</v>
+        <v>146395.24</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2322,7 +2322,7 @@
       <c r="Q11" s="36"/>
       <c r="R11" s="32">
         <f>R4+R6+R7+R8+R9+R10</f>
-        <v>304368.19</v>
+        <v>310605.19</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2395,7 +2395,7 @@
       <c r="Q14" s="36"/>
       <c r="R14" s="32">
         <f>R11+R12+R13</f>
-        <v>382850.02999999997</v>
+        <v>389087.02999999997</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2471,7 +2471,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="52" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="36"/>
@@ -2493,64 +2493,69 @@
       <c r="R18" s="37"/>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
-      <c r="B19" s="48">
+      <c r="A19" s="53"/>
+      <c r="B19" s="46">
         <f>FINANCIERO!B17</f>
         <v>10000</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51">
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49">
         <f>FINANCIERO!C17</f>
-        <v>268225.31</v>
-      </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="51">
+        <v>271343.81</v>
+      </c>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="49">
         <f>FINANCIERO!D17</f>
-        <v>139586.21999999997</v>
-      </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="51">
+        <v>142704.71999999997</v>
+      </c>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="49">
         <f>FINANCIERO!E17</f>
         <v>17290.75</v>
       </c>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="51"/>
       <c r="R19" s="37"/>
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
       <c r="R20" s="38">
         <f>R14+R15+R16+R17+0.01</f>
-        <v>435102.29</v>
+        <v>441339.29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B19:E19"/>
@@ -2559,11 +2564,6 @@
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/9.0 CRONOGRAMA/CRONOGRAMA- PROGRESO.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- PROGRESO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI 751\Documents\GitHub\IOARR0009\9.0 CRONOGRAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0009\9.0 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3C9F3E-3A6D-48C3-8498-263150C232CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1"/>
+    <workbookView xWindow="3456" yWindow="600" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINANCIERO" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">FINANCIERO!$A$1:$F$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">FISICO!$A$1:$R$20</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -136,10 +137,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
@@ -598,31 +599,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -631,7 +632,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -655,29 +656,29 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -695,19 +696,25 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,12 +740,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,7 +778,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -837,7 +838,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -897,7 +898,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -957,7 +958,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1017,7 +1018,7 @@
         <xdr:cNvPr id="6" name="Rectángulo 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1077,7 +1078,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1137,7 +1138,7 @@
         <xdr:cNvPr id="8" name="Rectángulo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1198,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1257,7 +1258,7 @@
         <xdr:cNvPr id="12" name="Rectángulo 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1317,7 +1318,7 @@
         <xdr:cNvPr id="13" name="Rectángulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,7 +1378,7 @@
         <xdr:cNvPr id="14" name="Rectángulo 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1684,14 +1685,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:F18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2009,14 +2010,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
@@ -2029,61 +2030,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
       <c r="R2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2159,26 +2160,26 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="58"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2471,7 +2472,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="54" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="36"/>
@@ -2493,57 +2494,57 @@
       <c r="R18" s="37"/>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="46">
+      <c r="A19" s="55"/>
+      <c r="B19" s="48">
         <f>FINANCIERO!B17</f>
         <v>10000</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49">
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51">
         <f>FINANCIERO!C17</f>
         <v>271343.81</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="49">
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="51">
         <f>FINANCIERO!D17</f>
         <v>142704.71999999997</v>
       </c>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="49">
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="51">
         <f>FINANCIERO!E17</f>
         <v>17290.75</v>
       </c>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="51"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="53"/>
       <c r="R19" s="37"/>
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
       <c r="R20" s="38">
         <f>R14+R15+R16+R17+0.01</f>
         <v>441339.29</v>
@@ -2551,11 +2552,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B19:E19"/>
@@ -2564,6 +2560,11 @@
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
